--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H2">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I2">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J2">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>4529.985585235278</v>
+        <v>4832.385201642221</v>
       </c>
       <c r="R2">
-        <v>18119.94234094111</v>
+        <v>19329.54080656888</v>
       </c>
       <c r="S2">
-        <v>0.006794044888064805</v>
+        <v>0.007292647208806244</v>
       </c>
       <c r="T2">
-        <v>0.003631443238175967</v>
+        <v>0.004061987114750692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H3">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I3">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J3">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>3268.985396620456</v>
+        <v>2847.425416785892</v>
       </c>
       <c r="R3">
-        <v>19613.91237972273</v>
+        <v>17084.55250071535</v>
       </c>
       <c r="S3">
-        <v>0.004902804458242924</v>
+        <v>0.004297105497912458</v>
       </c>
       <c r="T3">
-        <v>0.003930851883815687</v>
+        <v>0.003590216281578907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H4">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I4">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J4">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>2326.740172189989</v>
+        <v>1860.803282476248</v>
       </c>
       <c r="R4">
-        <v>13960.44103313993</v>
+        <v>11164.81969485749</v>
       </c>
       <c r="S4">
-        <v>0.003489630789167595</v>
+        <v>0.002808174700037626</v>
       </c>
       <c r="T4">
-        <v>0.00279783170596542</v>
+        <v>0.002346219922804055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H5">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I5">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J5">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>3850.971762472417</v>
+        <v>4124.726177412249</v>
       </c>
       <c r="R5">
-        <v>15403.88704988967</v>
+        <v>16498.904709649</v>
       </c>
       <c r="S5">
-        <v>0.005775664077648217</v>
+        <v>0.006224705107236308</v>
       </c>
       <c r="T5">
-        <v>0.003087114760986754</v>
+        <v>0.003467145909400934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H6">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I6">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J6">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>3350.705842234468</v>
+        <v>1434.98359634964</v>
       </c>
       <c r="R6">
-        <v>20104.23505340681</v>
+        <v>8609.901578097839</v>
       </c>
       <c r="S6">
-        <v>0.005025368286610034</v>
+        <v>0.002165561866849029</v>
       </c>
       <c r="T6">
-        <v>0.004029118143408096</v>
+        <v>0.001809319197982182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H7">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I7">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J7">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>2191.970856753862</v>
+        <v>2068.178965750454</v>
       </c>
       <c r="R7">
-        <v>13151.82514052317</v>
+        <v>12409.07379450272</v>
       </c>
       <c r="S7">
-        <v>0.003287504587797077</v>
+        <v>0.003121129407640403</v>
       </c>
       <c r="T7">
-        <v>0.002635775852791428</v>
+        <v>0.002607692462209496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J8">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>136625.1108427848</v>
+        <v>167323.0899535956</v>
       </c>
       <c r="R8">
-        <v>819750.6650567089</v>
+        <v>1003938.539721574</v>
       </c>
       <c r="S8">
-        <v>0.2049095120585243</v>
+        <v>0.252510554105713</v>
       </c>
       <c r="T8">
-        <v>0.1642873886460626</v>
+        <v>0.2109716652433259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J9">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>98593.13760565041</v>
+        <v>98593.13760565042</v>
       </c>
       <c r="R9">
-        <v>887338.2384508536</v>
+        <v>887338.2384508537</v>
       </c>
       <c r="S9">
-        <v>0.1478693894150986</v>
+        <v>0.1487888361058122</v>
       </c>
       <c r="T9">
-        <v>0.1778327096944816</v>
+        <v>0.186468810981172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J10">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>70174.86655231968</v>
+        <v>64430.98843070485</v>
       </c>
       <c r="R10">
-        <v>631573.7989708771</v>
+        <v>579878.8958763436</v>
       </c>
       <c r="S10">
-        <v>0.1052478389609831</v>
+        <v>0.09723406730492579</v>
       </c>
       <c r="T10">
-        <v>0.1265745971221881</v>
+        <v>0.1218580734398561</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J11">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>116145.9421891078</v>
+        <v>142820.1396243325</v>
       </c>
       <c r="R11">
-        <v>696875.6531346467</v>
+        <v>856920.8377459953</v>
       </c>
       <c r="S11">
-        <v>0.1741949792006664</v>
+        <v>0.2155326715756754</v>
       </c>
       <c r="T11">
-        <v>0.139661833951169</v>
+        <v>0.1800767765834715</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J12">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>101057.8396957689</v>
+        <v>49686.8273854386</v>
       </c>
       <c r="R12">
-        <v>909520.5572619204</v>
+        <v>447181.4464689474</v>
       </c>
       <c r="S12">
-        <v>0.1515659346514789</v>
+        <v>0.07498336492788639</v>
       </c>
       <c r="T12">
-        <v>0.182278299538965</v>
+        <v>0.09397250000347376</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J13">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>66110.20181703207</v>
+        <v>71611.44666381227</v>
       </c>
       <c r="R13">
-        <v>594991.8163532886</v>
+        <v>644503.0199743103</v>
       </c>
       <c r="S13">
-        <v>0.0991516794596182</v>
+        <v>0.1080702375410703</v>
       </c>
       <c r="T13">
-        <v>0.1192431503153429</v>
+        <v>0.1354384456801931</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H14">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I14">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J14">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>166.6056853589125</v>
+        <v>27.42313861131533</v>
       </c>
       <c r="R14">
-        <v>999.6341121534751</v>
+        <v>164.538831667892</v>
       </c>
       <c r="S14">
-        <v>0.000249874195764458</v>
+        <v>4.138479589386884E-05</v>
       </c>
       <c r="T14">
-        <v>0.000200338084356246</v>
+        <v>3.457684902085098E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H15">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I15">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J15">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>120.2280983426</v>
+        <v>16.15875776280533</v>
       </c>
       <c r="R15">
-        <v>1082.0528850834</v>
+        <v>145.428819865248</v>
       </c>
       <c r="S15">
-        <v>0.0001803173722248984</v>
+        <v>2.438549800555059E-05</v>
       </c>
       <c r="T15">
-        <v>0.000216855747052053</v>
+        <v>3.05609946101402E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H16">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I16">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J16">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>85.57381337002501</v>
+        <v>10.55980933109289</v>
       </c>
       <c r="R16">
-        <v>770.1643203302251</v>
+        <v>95.038283979836</v>
       </c>
       <c r="S16">
-        <v>0.0001283430859413284</v>
+        <v>1.593601520378595E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001543497192608796</v>
+        <v>1.997172559851598E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H17">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I17">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J17">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>141.6326338599625</v>
+        <v>23.407268455846</v>
       </c>
       <c r="R17">
-        <v>849.7958031597751</v>
+        <v>140.443610735076</v>
       </c>
       <c r="S17">
-        <v>0.0002124197646888218</v>
+        <v>3.532436754261506E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001703087772107448</v>
+        <v>2.951338279909219E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H18">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I18">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J18">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>123.2336467253</v>
+        <v>8.143339660564887</v>
       </c>
       <c r="R18">
-        <v>1109.1028205277</v>
+        <v>73.29005694508399</v>
       </c>
       <c r="S18">
-        <v>0.0001848250754484737</v>
+        <v>1.228927346805839E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002222768628212987</v>
+        <v>1.540146607358128E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H19">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I19">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J19">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>80.61721168970836</v>
+        <v>11.73663855098044</v>
       </c>
       <c r="R19">
-        <v>725.5549052073752</v>
+        <v>105.629746958824</v>
       </c>
       <c r="S19">
-        <v>0.0001209092048230114</v>
+        <v>1.77119912420244E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001454094833672567</v>
+        <v>2.21974580449064E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H20">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I20">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J20">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>9214.026193181138</v>
+        <v>14244.67950880229</v>
       </c>
       <c r="R20">
-        <v>36856.10477272455</v>
+        <v>56978.71803520915</v>
       </c>
       <c r="S20">
-        <v>0.0138191405642246</v>
+        <v>0.02149692500194393</v>
       </c>
       <c r="T20">
-        <v>0.007386384015141638</v>
+        <v>0.01197373599249592</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H21">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I21">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J21">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>6649.14192393023</v>
+        <v>8393.507718206904</v>
       </c>
       <c r="R21">
-        <v>39894.85154358138</v>
+        <v>50361.04630924142</v>
       </c>
       <c r="S21">
-        <v>0.00997234270359147</v>
+        <v>0.01266680698642847</v>
       </c>
       <c r="T21">
-        <v>0.007995383547586284</v>
+        <v>0.01058307195398985</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H22">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I22">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J22">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>4732.607750709182</v>
+        <v>5485.189048835253</v>
       </c>
       <c r="R22">
-        <v>28395.6465042551</v>
+        <v>32911.13429301152</v>
       </c>
       <c r="S22">
-        <v>0.00709793638212021</v>
+        <v>0.008277806287704258</v>
       </c>
       <c r="T22">
-        <v>0.005690811623529511</v>
+        <v>0.006916077560653253</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H23">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I23">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J23">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>7832.906754554026</v>
+        <v>12158.67527258328</v>
       </c>
       <c r="R23">
-        <v>31331.6270182161</v>
+        <v>48634.70109033313</v>
       </c>
       <c r="S23">
-        <v>0.01174774601224301</v>
+        <v>0.01834889512931483</v>
       </c>
       <c r="T23">
-        <v>0.006279215625276812</v>
+        <v>0.01022029085613605</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H24">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I24">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J24">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>6815.361950956395</v>
+        <v>4229.977656467157</v>
       </c>
       <c r="R24">
-        <v>40892.17170573837</v>
+        <v>25379.86593880294</v>
       </c>
       <c r="S24">
-        <v>0.01022163849132905</v>
+        <v>0.006383542176907752</v>
       </c>
       <c r="T24">
-        <v>0.008195257889955381</v>
+        <v>0.005333426667977692</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H25">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I25">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J25">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>4458.485906588332</v>
+        <v>6096.481407142302</v>
       </c>
       <c r="R25">
-        <v>26750.91543952999</v>
+        <v>36578.88844285381</v>
       </c>
       <c r="S25">
-        <v>0.00668681010396464</v>
+        <v>0.0092003195652173</v>
       </c>
       <c r="T25">
-        <v>0.005361188747737085</v>
+        <v>0.007686834106078776</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H26">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I26">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J26">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>3985.963952047684</v>
+        <v>58.3816323593525</v>
       </c>
       <c r="R26">
-        <v>23915.7837122861</v>
+        <v>350.289794156115</v>
       </c>
       <c r="S26">
-        <v>0.005978124544299986</v>
+        <v>8.810486550747169E-05</v>
       </c>
       <c r="T26">
-        <v>0.004792995993780273</v>
+        <v>7.36113001612158E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H27">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I27">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J27">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>2876.401636501605</v>
+        <v>34.40068142683999</v>
       </c>
       <c r="R27">
-        <v>25887.61472851444</v>
+        <v>309.60613284156</v>
       </c>
       <c r="S27">
-        <v>0.004314009717423852</v>
+        <v>5.191474249677406E-05</v>
       </c>
       <c r="T27">
-        <v>0.005188173432867872</v>
+        <v>6.506187264535658E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H28">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I28">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J28">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>2047.313899266818</v>
+        <v>22.48097545983833</v>
       </c>
       <c r="R28">
-        <v>18425.82509340136</v>
+        <v>202.328779138545</v>
       </c>
       <c r="S28">
-        <v>0.003070548960887104</v>
+        <v>3.392648062963129E-05</v>
       </c>
       <c r="T28">
-        <v>0.003692745632642568</v>
+        <v>4.251817992100007E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H29">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I29">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J29">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>3388.49524722524</v>
+        <v>49.8321713241825</v>
       </c>
       <c r="R29">
-        <v>20330.97148335144</v>
+        <v>298.993027945095</v>
       </c>
       <c r="S29">
-        <v>0.005082044606869721</v>
+        <v>7.520270631417268E-05</v>
       </c>
       <c r="T29">
-        <v>0.004074558711588614</v>
+        <v>6.283159227975742E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H30">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I30">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J30">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>2948.307991220349</v>
+        <v>17.33650801167833</v>
       </c>
       <c r="R30">
-        <v>26534.77192098314</v>
+        <v>156.028572105105</v>
       </c>
       <c r="S30">
-        <v>0.004421854431828365</v>
+        <v>2.616286398668051E-05</v>
       </c>
       <c r="T30">
-        <v>0.005317871119891821</v>
+        <v>3.278846899500593E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H31">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I31">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J31">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>1928.729496940812</v>
+        <v>24.98634918233666</v>
       </c>
       <c r="R31">
-        <v>17358.56547246731</v>
+        <v>224.87714264103</v>
       </c>
       <c r="S31">
-        <v>0.002892696793972235</v>
+        <v>3.770738921245388E-05</v>
       </c>
       <c r="T31">
-        <v>0.003478854624553526</v>
+        <v>4.725658332759742E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H32">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I32">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J32">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>217.2638858369765</v>
+        <v>25.47718497721467</v>
       </c>
       <c r="R32">
-        <v>1303.583315021859</v>
+        <v>152.863109863288</v>
       </c>
       <c r="S32">
-        <v>0.0003258510573947312</v>
+        <v>3.844811912949005E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002612529734180861</v>
+        <v>3.212326608267804E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H33">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I33">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J33">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>156.784708615624</v>
+        <v>15.01212776407466</v>
       </c>
       <c r="R33">
-        <v>1411.062377540616</v>
+        <v>135.109149876672</v>
       </c>
       <c r="S33">
-        <v>0.0002351447544487905</v>
+        <v>2.265509620377886E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002827930041469565</v>
+        <v>2.839237783121343E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H34">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I34">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J34">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>111.593425990281</v>
+        <v>9.810482288900443</v>
       </c>
       <c r="R34">
-        <v>1004.340833912529</v>
+        <v>88.29434060010401</v>
       </c>
       <c r="S34">
-        <v>0.0001673671430350763</v>
+        <v>1.480519107973419E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002012813651120171</v>
+        <v>1.855452632900358E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H35">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I35">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J35">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>184.6975169391785</v>
+        <v>21.746282098244</v>
       </c>
       <c r="R35">
-        <v>1108.185101635071</v>
+        <v>130.477692589464</v>
       </c>
       <c r="S35">
-        <v>0.0002770082149684621</v>
+        <v>3.281774047974866E-05</v>
       </c>
       <c r="T35">
-        <v>0.000222092941481789</v>
+        <v>2.741910484912769E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H36">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I36">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J36">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>160.704125406772</v>
+        <v>7.565485986308444</v>
       </c>
       <c r="R36">
-        <v>1446.337128660948</v>
+        <v>68.08937387677599</v>
       </c>
       <c r="S36">
-        <v>0.0002410230719650506</v>
+        <v>1.141722316394923E-05</v>
       </c>
       <c r="T36">
-        <v>0.0002898624668430291</v>
+        <v>1.430857370625768E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H37">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I37">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J37">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>105.1297177483217</v>
+        <v>10.90380337612622</v>
       </c>
       <c r="R37">
-        <v>946.167459734895</v>
+        <v>98.13423038513598</v>
       </c>
       <c r="S37">
-        <v>0.0001576729126423001</v>
+        <v>1.645514335845081E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001896227570257246</v>
+        <v>2.062232017456579E-05</v>
       </c>
     </row>
   </sheetData>
